--- a/productos.xlsx
+++ b/productos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,11 +462,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Resistencia 1K</t>
+          <t>Resistencia 2K</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -478,12 +478,12 @@
         <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -499,28 +499,7 @@
         <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Resistencia 2K</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Resistencias</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
     </row>
   </sheetData>
